--- a/public/estochabitatge.xlsx
+++ b/public/estochabitatge.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96638478-011A-4E2D-A4FC-53A83507BDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEF8C21-595F-4241-9D80-2AAADE293EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -623,31 +623,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE0A71B-F9FA-4E45-8679-5B51BE4A2368}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" customWidth="1"/>
-    <col min="8" max="8" width="22.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="12.36328125" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" customWidth="1"/>
-    <col min="14" max="14" width="12.08984375" customWidth="1"/>
+    <col min="2" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.08984375" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" customWidth="1"/>
+    <col min="9" max="9" width="22.6328125" customWidth="1"/>
+    <col min="10" max="10" width="10.7265625" customWidth="1"/>
+    <col min="11" max="11" width="14.453125" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" customWidth="1"/>
+    <col min="13" max="13" width="12.36328125" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" customWidth="1"/>
+    <col min="15" max="15" width="12.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -655,198 +655,218 @@
         <v>1</v>
       </c>
       <c r="C1" s="7">
-        <f ca="1">NOW()</f>
-        <v>45753.674296527781</v>
+        <v>46023</v>
       </c>
       <c r="D1" s="7">
+        <v>45658</v>
+      </c>
+      <c r="E1" s="7">
         <v>45292</v>
       </c>
-      <c r="E1" s="7">
+      <c r="F1" s="7">
         <v>44927</v>
       </c>
-      <c r="F1" s="7">
+      <c r="G1" s="7">
         <v>44562</v>
       </c>
-      <c r="G1" s="7">
+      <c r="H1" s="7">
         <v>44197</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
         <f>(C2*100/D2)-100</f>
-        <v>-32.10614838347972</v>
+        <v>29.865125240847789</v>
       </c>
       <c r="C2" s="11">
+        <v>4718</v>
+      </c>
+      <c r="D2" s="11">
         <v>3633</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="12">
         <v>5351</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="11">
         <v>7856</v>
       </c>
-      <c r="F2" s="11">
+      <c r="G2" s="11">
         <v>10352</v>
       </c>
-      <c r="G2" s="12">
+      <c r="H2" s="12">
         <v>13023</v>
       </c>
-      <c r="H2" s="3">
-        <f>(C2*100/G2)-100</f>
-        <v>-72.103202027182675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="3">
+        <f>(C2*100/H2)-100</f>
+        <v>-63.771788374414498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B7" si="0">(C3*100/D3)-100</f>
-        <v>-19.897713199913028</v>
+        <v>-7.9189926002856055</v>
       </c>
       <c r="C3" s="11">
+        <v>78023</v>
+      </c>
+      <c r="D3" s="11">
         <v>84733</v>
       </c>
-      <c r="D3" s="12">
+      <c r="E3" s="12">
         <v>105781</v>
       </c>
-      <c r="E3" s="11">
+      <c r="F3" s="11">
         <v>120344</v>
       </c>
-      <c r="F3" s="11">
+      <c r="G3" s="11">
         <v>140667</v>
       </c>
-      <c r="G3" s="12">
+      <c r="H3" s="12">
         <v>145180</v>
       </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H7" si="1">(C3*100/G3)-100</f>
-        <v>-41.635900261744041</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I7" si="1">(C3*100/H3)-100</f>
+        <v>-46.257749001239837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>-25.135105327010038</v>
+        <v>11.586623453152626</v>
       </c>
       <c r="C4" s="11">
+        <v>15149</v>
+      </c>
+      <c r="D4" s="11">
         <v>13576</v>
       </c>
-      <c r="D4" s="12">
+      <c r="E4" s="12">
         <v>18134</v>
       </c>
-      <c r="E4" s="11">
+      <c r="F4" s="11">
         <v>22107</v>
       </c>
-      <c r="F4" s="11">
+      <c r="G4" s="11">
         <v>24750</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H4" s="12">
         <v>23155</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <f t="shared" si="1"/>
-        <v>-41.369034765709351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+        <v>-34.57568559706327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>-19.039872821043687</v>
+        <v>-6.2858186633787767</v>
       </c>
       <c r="C5" s="11">
+        <v>82088</v>
+      </c>
+      <c r="D5" s="11">
         <v>87594</v>
       </c>
-      <c r="D5" s="12">
+      <c r="E5" s="12">
         <v>108194</v>
       </c>
-      <c r="E5" s="11">
+      <c r="F5" s="11">
         <v>113475</v>
       </c>
-      <c r="F5" s="11">
+      <c r="G5" s="11">
         <v>113522</v>
       </c>
-      <c r="G5" s="12">
+      <c r="H5" s="12">
         <v>117586</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <f t="shared" si="1"/>
-        <v>-25.506437841239602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+        <v>-30.188968074430633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>-24.149659863945573</v>
+        <v>-7.3350416399743779</v>
       </c>
       <c r="C6" s="11">
+        <v>2893</v>
+      </c>
+      <c r="D6" s="11">
         <v>3122</v>
       </c>
-      <c r="D6" s="12">
+      <c r="E6" s="12">
         <v>4116</v>
       </c>
-      <c r="E6" s="11">
+      <c r="F6" s="11">
         <v>4802</v>
       </c>
-      <c r="F6" s="11">
+      <c r="G6" s="11">
         <v>5513</v>
       </c>
-      <c r="G6" s="12">
+      <c r="H6" s="12">
         <v>5954</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <f t="shared" si="1"/>
-        <v>-47.564662411823981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+        <v>-51.410816257977828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>-14.756818417504931</v>
+        <v>-6.5409570154095746</v>
       </c>
       <c r="C7" s="11">
+        <v>23047</v>
+      </c>
+      <c r="D7" s="11">
         <v>24660</v>
       </c>
-      <c r="D7" s="12">
+      <c r="E7" s="12">
         <v>28929</v>
       </c>
-      <c r="E7" s="11">
+      <c r="F7" s="11">
         <v>29223</v>
       </c>
-      <c r="F7" s="11">
+      <c r="G7" s="11">
         <v>31497</v>
       </c>
-      <c r="G7" s="12">
+      <c r="H7" s="12">
         <v>35814</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <f t="shared" si="1"/>
-        <v>-31.144245267213932</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E8" s="8"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+        <v>-35.648070586921321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F8" s="8"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -854,191 +874,211 @@
         <v>1</v>
       </c>
       <c r="C9" s="7">
-        <f ca="1">NOW()</f>
-        <v>45753.674296527781</v>
+        <v>46023</v>
       </c>
       <c r="D9" s="7">
+        <v>45658</v>
+      </c>
+      <c r="E9" s="7">
         <v>45292</v>
       </c>
-      <c r="E9" s="7">
+      <c r="F9" s="7">
         <v>44927</v>
       </c>
-      <c r="F9" s="7">
+      <c r="G9" s="7">
         <v>44562</v>
       </c>
-      <c r="G9" s="7">
+      <c r="H9" s="7">
         <v>44197</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="3">
         <f>(C10*100/D10)-100</f>
-        <v>23.238095238095241</v>
-      </c>
-      <c r="C10" s="9">
+        <v>12.905718701700152</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2922</v>
+      </c>
+      <c r="D10" s="9">
         <v>2588</v>
       </c>
-      <c r="D10" s="9">
+      <c r="E10" s="9">
         <v>2100</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>1593</v>
       </c>
-      <c r="F10" s="9">
+      <c r="G10" s="9">
         <v>2709</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>6092</v>
       </c>
-      <c r="H10" s="3">
-        <f>(C10*100/G10)-100</f>
-        <v>-57.518056467498361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="3">
+        <f>(C10*100/H10)-100</f>
+        <v>-52.035456336178598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" ref="B11:B15" si="2">(C11*100/D11)-100</f>
-        <v>18.188854489164086</v>
-      </c>
-      <c r="C11" s="9">
+        <v>19.515389652914209</v>
+      </c>
+      <c r="C11" s="11">
+        <v>12775</v>
+      </c>
+      <c r="D11" s="9">
         <v>10689</v>
       </c>
-      <c r="D11" s="9">
+      <c r="E11" s="9">
         <v>9044</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F11" s="9">
         <v>7708</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="9">
         <v>9737</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>15873</v>
       </c>
-      <c r="H11" s="3">
-        <f t="shared" ref="H11:H15" si="3">(C11*100/G11)-100</f>
-        <v>-32.659232659232657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="3">
+        <f t="shared" ref="I11:I15" si="3">(C11*100/H11)-100</f>
+        <v>-19.517419517419512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="2"/>
-        <v>-14.640836619235387</v>
-      </c>
-      <c r="C12" s="9">
+        <v>0.14059048001607266</v>
+      </c>
+      <c r="C12" s="11">
+        <v>4986</v>
+      </c>
+      <c r="D12" s="9">
         <v>4979</v>
       </c>
-      <c r="D12" s="9">
+      <c r="E12" s="9">
         <v>5833</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <v>5809</v>
       </c>
-      <c r="F12" s="9">
+      <c r="G12" s="9">
         <v>6960</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>18442</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <f t="shared" si="3"/>
-        <v>-73.001843617828868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+        <v>-72.963886780175685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="2"/>
-        <v>-17.636610594504234</v>
-      </c>
-      <c r="C13" s="9">
+        <v>7.2307497145756656</v>
+      </c>
+      <c r="C13" s="11">
+        <v>8453</v>
+      </c>
+      <c r="D13" s="9">
         <v>7883</v>
       </c>
-      <c r="D13" s="9">
+      <c r="E13" s="9">
         <v>9571</v>
       </c>
-      <c r="E13" s="9">
+      <c r="F13" s="9">
         <v>10067</v>
       </c>
-      <c r="F13" s="9">
+      <c r="G13" s="9">
         <v>10452</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>23713</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>-66.756631383629241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+        <v>-64.352886602285665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="2"/>
-        <v>-13.090418353576254</v>
-      </c>
-      <c r="C14" s="9">
+        <v>30.900621118012424</v>
+      </c>
+      <c r="C14" s="11">
+        <v>843</v>
+      </c>
+      <c r="D14" s="9">
         <v>644</v>
       </c>
-      <c r="D14" s="9">
+      <c r="E14" s="9">
         <v>741</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <v>942</v>
       </c>
-      <c r="F14" s="9">
+      <c r="G14" s="9">
         <v>1414</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>2623</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <f t="shared" si="3"/>
-        <v>-75.447960350743415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+        <v>-67.861227601982463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="3">
-        <f>(C15*100/D15)-100</f>
-        <v>4.3217286914765936</v>
-      </c>
-      <c r="C15" s="9">
+        <f t="shared" si="2"/>
+        <v>29.142692750287694</v>
+      </c>
+      <c r="C15" s="11">
+        <v>4489</v>
+      </c>
+      <c r="D15" s="9">
         <v>3476</v>
       </c>
-      <c r="D15" s="9">
+      <c r="E15" s="9">
         <v>3332</v>
       </c>
-      <c r="E15" s="9">
+      <c r="F15" s="9">
         <v>3606</v>
       </c>
-      <c r="F15" s="9">
+      <c r="G15" s="9">
         <v>4549</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>7977</v>
       </c>
-      <c r="H15" s="3">
-        <f>(C15*100/G15)-100</f>
-        <v>-56.424721073085117</v>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>-43.725711420333461</v>
       </c>
     </row>
   </sheetData>
@@ -1070,7 +1110,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7">
+  <conditionalFormatting sqref="I2:I7">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1084,7 +1124,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H15">
+  <conditionalFormatting sqref="I10:I15">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1153,7 +1193,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H2:H7</xm:sqref>
+          <xm:sqref>I2:I7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{29352116-8E53-43B4-8488-612C04A5EB1A}">
@@ -1166,7 +1206,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H10:H15</xm:sqref>
+          <xm:sqref>I10:I15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
